--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H2">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I2">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J2">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>11.04215339342895</v>
+        <v>18.01284682356444</v>
       </c>
       <c r="R2">
-        <v>11.04215339342895</v>
+        <v>162.11562141208</v>
       </c>
       <c r="S2">
-        <v>0.001869426071619432</v>
+        <v>0.002434630002392727</v>
       </c>
       <c r="T2">
-        <v>0.001869426071619432</v>
+        <v>0.002663800964739218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H3">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I3">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J3">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>575.370318733366</v>
+        <v>848.0142539595122</v>
       </c>
       <c r="R3">
-        <v>575.370318733366</v>
+        <v>7632.12828563561</v>
       </c>
       <c r="S3">
-        <v>0.0974096479511161</v>
+        <v>0.1146182480409259</v>
       </c>
       <c r="T3">
-        <v>0.0974096479511161</v>
+        <v>0.125407227959925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H4">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I4">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J4">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>379.9065931176239</v>
+        <v>535.5437818913789</v>
       </c>
       <c r="R4">
-        <v>379.9065931176239</v>
+        <v>4819.894037022411</v>
       </c>
       <c r="S4">
-        <v>0.06431782503373271</v>
+        <v>0.07238450266961229</v>
       </c>
       <c r="T4">
-        <v>0.06431782503373271</v>
+        <v>0.07919803331675961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H5">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I5">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J5">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>445.924084049185</v>
+        <v>637.8915112179656</v>
       </c>
       <c r="R5">
-        <v>445.924084049185</v>
+        <v>5741.02360096169</v>
       </c>
       <c r="S5">
-        <v>0.07549452348494262</v>
+        <v>0.08621789918577548</v>
       </c>
       <c r="T5">
-        <v>0.07549452348494262</v>
+        <v>0.09433356312997988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H6">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I6">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J6">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>134.8095171463693</v>
+        <v>189.2192810551933</v>
       </c>
       <c r="R6">
-        <v>134.8095171463693</v>
+        <v>1135.31568633116</v>
       </c>
       <c r="S6">
-        <v>0.0228231230880945</v>
+        <v>0.02557502116131328</v>
       </c>
       <c r="T6">
-        <v>0.0228231230880945</v>
+        <v>0.01865492661466096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H7">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I7">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J7">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>8.453517586627369</v>
+        <v>10.52526826829333</v>
       </c>
       <c r="R7">
-        <v>8.453517586627369</v>
+        <v>94.72741441463999</v>
       </c>
       <c r="S7">
-        <v>0.001431172490570442</v>
+        <v>0.001422603220924315</v>
       </c>
       <c r="T7">
-        <v>0.001431172490570442</v>
+        <v>0.001556512418155941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H8">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I8">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J8">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>440.4850154617804</v>
+        <v>495.5117647802366</v>
       </c>
       <c r="R8">
-        <v>440.4850154617804</v>
+        <v>4459.60588302213</v>
       </c>
       <c r="S8">
-        <v>0.07457369434407311</v>
+        <v>0.06697374495486923</v>
       </c>
       <c r="T8">
-        <v>0.07457369434407311</v>
+        <v>0.07327796266687128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H9">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I9">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J9">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>290.8442721060796</v>
+        <v>312.9289905718367</v>
       </c>
       <c r="R9">
-        <v>290.8442721060796</v>
+        <v>2816.36091514653</v>
       </c>
       <c r="S9">
-        <v>0.04923965875893713</v>
+        <v>0.04229571907911797</v>
       </c>
       <c r="T9">
-        <v>0.04923965875893713</v>
+        <v>0.04627700191674512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H10">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I10">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J10">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>341.3851404250319</v>
+        <v>372.7328249331966</v>
       </c>
       <c r="R10">
-        <v>341.3851404250319</v>
+        <v>3354.59542439877</v>
       </c>
       <c r="S10">
-        <v>0.05779617971561567</v>
+        <v>0.05037885056968377</v>
       </c>
       <c r="T10">
-        <v>0.05779617971561567</v>
+        <v>0.05512099605200259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H11">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I11">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J11">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>103.2058316378531</v>
+        <v>110.56462724338</v>
       </c>
       <c r="R11">
-        <v>103.2058316378531</v>
+        <v>663.38776346028</v>
       </c>
       <c r="S11">
-        <v>0.01747264917744953</v>
+        <v>0.01494399865422461</v>
       </c>
       <c r="T11">
-        <v>0.01747264917744953</v>
+        <v>0.01090044838930006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H12">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I12">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J12">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>7.23516719155639</v>
+        <v>10.72962050474222</v>
       </c>
       <c r="R12">
-        <v>7.23516719155639</v>
+        <v>96.56658454267999</v>
       </c>
       <c r="S12">
-        <v>0.001224906926983099</v>
+        <v>0.001450223623783881</v>
       </c>
       <c r="T12">
-        <v>0.001224906926983099</v>
+        <v>0.001586732720917137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H13">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I13">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J13">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>377.0007809864588</v>
+        <v>505.132321210576</v>
       </c>
       <c r="R13">
-        <v>377.0007809864588</v>
+        <v>4546.190890895185</v>
       </c>
       <c r="S13">
-        <v>0.06382587380251174</v>
+        <v>0.06827406663941135</v>
       </c>
       <c r="T13">
-        <v>0.06382587380251174</v>
+        <v>0.07470068322578596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H14">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I14">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J14">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>248.9267827067412</v>
+        <v>319.0046303981094</v>
       </c>
       <c r="R14">
-        <v>248.9267827067412</v>
+        <v>2871.041673582985</v>
       </c>
       <c r="S14">
-        <v>0.04214306765501474</v>
+        <v>0.04311690715392161</v>
       </c>
       <c r="T14">
-        <v>0.04214306765501474</v>
+        <v>0.0471754881687606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H15">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I15">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J15">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>292.1835250683484</v>
+        <v>379.9695798007627</v>
       </c>
       <c r="R15">
-        <v>292.1835250683484</v>
+        <v>3419.726218206865</v>
       </c>
       <c r="S15">
-        <v>0.04946639301220775</v>
+        <v>0.05135697583178776</v>
       </c>
       <c r="T15">
-        <v>0.04946639301220775</v>
+        <v>0.05619119193978336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H16">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I16">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J16">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>88.33144775433018</v>
+        <v>112.7112831074766</v>
       </c>
       <c r="R16">
-        <v>88.33144775433018</v>
+        <v>676.2676986448599</v>
       </c>
       <c r="S16">
-        <v>0.0149544301271979</v>
+        <v>0.01523414228464204</v>
       </c>
       <c r="T16">
-        <v>0.0149544301271979</v>
+        <v>0.01111208489583542</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.35873527311306</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H17">
-        <v>2.35873527311306</v>
+        <v>7.50382</v>
       </c>
       <c r="I17">
-        <v>0.1879352598179054</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J17">
-        <v>0.1879352598179054</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>7.923232984084635</v>
+        <v>9.871712099075555</v>
       </c>
       <c r="R17">
-        <v>7.923232984084635</v>
+        <v>88.84540889167999</v>
       </c>
       <c r="S17">
-        <v>0.001341395811506949</v>
+        <v>0.001334268074713839</v>
       </c>
       <c r="T17">
-        <v>0.001341395811506949</v>
+        <v>0.001459862312199559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.35873527311306</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H18">
-        <v>2.35873527311306</v>
+        <v>7.50382</v>
       </c>
       <c r="I18">
-        <v>0.1879352598179054</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J18">
-        <v>0.1879352598179054</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>412.853627822665</v>
+        <v>464.7434496611177</v>
       </c>
       <c r="R18">
-        <v>412.853627822665</v>
+        <v>4182.69104695006</v>
       </c>
       <c r="S18">
-        <v>0.06989572668621351</v>
+        <v>0.06281507620884494</v>
       </c>
       <c r="T18">
-        <v>0.06989572668621351</v>
+        <v>0.06872783972958589</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.35873527311306</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H19">
-        <v>2.35873527311306</v>
+        <v>7.50382</v>
       </c>
       <c r="I19">
-        <v>0.1879352598179054</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J19">
-        <v>0.1879352598179054</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>272.5997676551064</v>
+        <v>293.4979730336511</v>
       </c>
       <c r="R19">
-        <v>272.5997676551064</v>
+        <v>2641.48175730286</v>
       </c>
       <c r="S19">
-        <v>0.04615088150062422</v>
+        <v>0.03966940805016955</v>
       </c>
       <c r="T19">
-        <v>0.04615088150062422</v>
+        <v>0.04340347705023871</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.35873527311306</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H20">
-        <v>2.35873527311306</v>
+        <v>7.50382</v>
       </c>
       <c r="I20">
-        <v>0.1879352598179054</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J20">
-        <v>0.1879352598179054</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>319.970234541278</v>
+        <v>349.5883471873044</v>
       </c>
       <c r="R20">
-        <v>319.970234541278</v>
+        <v>3146.29512468574</v>
       </c>
       <c r="S20">
-        <v>0.05417065650886603</v>
+        <v>0.04725062545003499</v>
       </c>
       <c r="T20">
-        <v>0.05417065650886603</v>
+        <v>0.0516983120780713</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.35873527311306</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H21">
-        <v>2.35873527311306</v>
+        <v>7.50382</v>
       </c>
       <c r="I21">
-        <v>0.1879352598179054</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J21">
-        <v>0.1879352598179054</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>96.73178543763619</v>
+        <v>103.6992255842267</v>
       </c>
       <c r="R21">
-        <v>96.73178543763619</v>
+        <v>622.19535350536</v>
       </c>
       <c r="S21">
-        <v>0.01637659931069472</v>
+        <v>0.0140160657726778</v>
       </c>
       <c r="T21">
-        <v>0.01637659931069472</v>
+        <v>0.01022359577989648</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.23431818352244</v>
+        <v>2.700538</v>
       </c>
       <c r="H22">
-        <v>2.23431818352244</v>
+        <v>5.401076</v>
       </c>
       <c r="I22">
-        <v>0.1780221685420283</v>
+        <v>0.1782370233711727</v>
       </c>
       <c r="J22">
-        <v>0.1780221685420283</v>
+        <v>0.1263302586697861</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>7.505303257393782</v>
+        <v>10.65814491097067</v>
       </c>
       <c r="R22">
-        <v>7.505303257393782</v>
+        <v>63.948869465824</v>
       </c>
       <c r="S22">
-        <v>0.00127064070610825</v>
+        <v>0.001440562928462395</v>
       </c>
       <c r="T22">
-        <v>0.00127064070610825</v>
+        <v>0.001050775111573244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.23431818352244</v>
+        <v>2.700538</v>
       </c>
       <c r="H23">
-        <v>2.23431818352244</v>
+        <v>5.401076</v>
       </c>
       <c r="I23">
-        <v>0.1780221685420283</v>
+        <v>0.1782370233711727</v>
       </c>
       <c r="J23">
-        <v>0.1780221685420283</v>
+        <v>0.1263302586697861</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>391.0766834634821</v>
+        <v>501.7673715764513</v>
       </c>
       <c r="R23">
-        <v>391.0766834634821</v>
+        <v>3010.604229458708</v>
       </c>
       <c r="S23">
-        <v>0.06620891070976745</v>
+        <v>0.06781925750146525</v>
       </c>
       <c r="T23">
-        <v>0.06620891070976745</v>
+        <v>0.04946870869707866</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.23431818352244</v>
+        <v>2.700538</v>
       </c>
       <c r="H24">
-        <v>2.23431818352244</v>
+        <v>5.401076</v>
       </c>
       <c r="I24">
-        <v>0.1780221685420283</v>
+        <v>0.1782370233711727</v>
       </c>
       <c r="J24">
-        <v>0.1780221685420283</v>
+        <v>0.1263302586697861</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>258.2208459925812</v>
+        <v>316.8795743102913</v>
       </c>
       <c r="R24">
-        <v>258.2208459925812</v>
+        <v>1901.277445861748</v>
       </c>
       <c r="S24">
-        <v>0.04371654373334651</v>
+        <v>0.04282968296560503</v>
       </c>
       <c r="T24">
-        <v>0.04371654373334651</v>
+        <v>0.03124081843815484</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.23431818352244</v>
+        <v>2.700538</v>
       </c>
       <c r="H25">
-        <v>2.23431818352244</v>
+        <v>5.401076</v>
       </c>
       <c r="I25">
-        <v>0.1780221685420283</v>
+        <v>0.1782370233711727</v>
       </c>
       <c r="J25">
-        <v>0.1780221685420283</v>
+        <v>0.1263302586697861</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>303.0926451860669</v>
+        <v>377.4384044139553</v>
       </c>
       <c r="R25">
-        <v>303.0926451860669</v>
+        <v>2264.630426483732</v>
       </c>
       <c r="S25">
-        <v>0.0513132966767255</v>
+        <v>0.05101486025181305</v>
       </c>
       <c r="T25">
-        <v>0.0513132966767255</v>
+        <v>0.03721124875135345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.23431818352244</v>
+        <v>2.700538</v>
       </c>
       <c r="H26">
-        <v>2.23431818352244</v>
+        <v>5.401076</v>
       </c>
       <c r="I26">
-        <v>0.1780221685420283</v>
+        <v>0.1782370233711727</v>
       </c>
       <c r="J26">
-        <v>0.1780221685420283</v>
+        <v>0.1263302586697861</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>91.62943785660769</v>
+        <v>111.960454512812</v>
       </c>
       <c r="R26">
-        <v>91.62943785660769</v>
+        <v>447.841818051248</v>
       </c>
       <c r="S26">
-        <v>0.01551277671608059</v>
+        <v>0.01513265972382697</v>
       </c>
       <c r="T26">
-        <v>0.01551277671608059</v>
+        <v>0.007358707671625938</v>
       </c>
     </row>
   </sheetData>
